--- a/SourceData/ddF.xlsx
+++ b/SourceData/ddF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shokenlee/Desktop/git/AH_AAcomposition/SourceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCACEBCA-20A0-C046-8DE6-B27499CABA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5867965-E4FF-1842-8470-08B282282D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{FFFD6C85-BB96-1C45-AB62-56EA2AC83722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>NEMP1</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>Protein_Name</t>
+  </si>
+  <si>
+    <t>AH#</t>
+  </si>
+  <si>
+    <t>AA_Sequence</t>
+  </si>
+  <si>
+    <t>ddF</t>
   </si>
 </sst>
 </file>
@@ -646,14 +658,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC190AAD-9CCA-A747-8964-8AE7A6ACB6B2}">
-  <dimension ref="A2:D41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>

--- a/SourceData/ddF.xlsx
+++ b/SourceData/ddF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shokenlee/Desktop/git/AH_AAcomposition/SourceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5867965-E4FF-1842-8470-08B282282D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A762B-FD05-C844-BDE1-F24E254DCF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{FFFD6C85-BB96-1C45-AB62-56EA2AC83722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>NEMP1</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>ddF</t>
+  </si>
+  <si>
+    <t>SVAGLKKQFHKATQKVSEKV</t>
+  </si>
+  <si>
+    <t>EndophilinA1</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC190AAD-9CCA-A747-8964-8AE7A6ACB6B2}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1208,9 @@
       <c r="C39" t="s">
         <v>71</v>
       </c>
+      <c r="D39">
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1223,6 +1232,20 @@
       </c>
       <c r="C41" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>-3.444</v>
       </c>
     </row>
   </sheetData>
